--- a/export.xlsx
+++ b/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
   <si>
     <t>S. No.</t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>angadsehgal@hotmail.com</t>
+  </si>
+  <si>
+    <t>Online Payment</t>
   </si>
   <si>
     <t xml:space="preserve">Ssss </t>
@@ -758,7 +761,7 @@
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>110.48</v>
@@ -772,13 +775,13 @@
         <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q4">
         <v>110048</v>
       </c>
       <c r="R4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -786,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>6046</v>
@@ -795,13 +798,13 @@
         <v>10648</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -818,13 +821,13 @@
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O5" t="s">
         <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5">
         <v>111111</v>
@@ -880,7 +883,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>6049</v>
@@ -889,13 +892,13 @@
         <v>10628</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -912,13 +915,13 @@
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q6">
         <v>111111</v>
@@ -935,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>6050</v>
@@ -944,13 +947,13 @@
         <v>5951</v>
       </c>
       <c r="E7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -967,13 +970,13 @@
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q7">
         <v>110018</v>

--- a/export.xlsx
+++ b/export.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="81">
   <si>
     <t>S. No.</t>
   </si>
@@ -71,21 +71,111 @@
     <t>Product Selection</t>
   </si>
   <si>
-    <t>2017-09-30 11:22:06</t>
+    <t>2017-09-26 18:05</t>
+  </si>
+  <si>
+    <t>Rohit Singh</t>
+  </si>
+  <si>
+    <t>8373934770</t>
+  </si>
+  <si>
+    <t>rohitrrr@gmail.com</t>
+  </si>
+  <si>
+    <t>Cash On Delivery</t>
+  </si>
+  <si>
+    <t>New Delhi, Delhi 110018</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4, Najafgarh Rd, Block 1, Tilak Nagar </t>
+  </si>
+  <si>
+    <t>All in One Mixture (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>Chana Malai (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>Apricot (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-09-27 18:48</t>
+  </si>
+  <si>
+    <t>rohit singh</t>
+  </si>
+  <si>
+    <t>rohit.dignitas100@gmail.com</t>
+  </si>
+  <si>
+    <t>Credit Card / Debit Card / Net Banking (Razorpay)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/4 Tilak Nagar </t>
+  </si>
+  <si>
+    <t>Brain Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apple Cinnamon Granola Bar (3 Bars) </t>
+  </si>
+  <si>
+    <t>2017-09-27 21:08</t>
+  </si>
+  <si>
+    <t>adada sadasd</t>
+  </si>
+  <si>
+    <t>08860327209</t>
+  </si>
+  <si>
+    <t>anela.kumar@gmail.com</t>
+  </si>
+  <si>
+    <t>sfsaf</t>
+  </si>
+  <si>
+    <t>Lakshadweep Islands</t>
+  </si>
+  <si>
+    <t>asfafs asfaf</t>
+  </si>
+  <si>
+    <t>2017-09-27 21:24</t>
+  </si>
+  <si>
+    <t>Fruity Fusion</t>
+  </si>
+  <si>
+    <t>Four Powerful Fruits</t>
+  </si>
+  <si>
+    <t>2017-09-27 22:20</t>
+  </si>
+  <si>
+    <t>2017-09-29 21:52</t>
+  </si>
+  <si>
+    <t>2017-09-29 22:04</t>
+  </si>
+  <si>
+    <t>2017-09-29 22:51</t>
+  </si>
+  <si>
+    <t>2017-09-30 23:52</t>
   </si>
   <si>
     <t>rrSS ss</t>
   </si>
   <si>
-    <t>8373934770</t>
-  </si>
-  <si>
     <t>rohit.dignitas121@gmail.com</t>
   </si>
   <si>
-    <t>Cash On Delivery</t>
-  </si>
-  <si>
     <t>new dfdd</t>
   </si>
   <si>
@@ -101,16 +191,10 @@
     <t>Assorted Instant Drink Pack</t>
   </si>
   <si>
-    <t>All in One Mixture (Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>Apricot (Weight: 50 Grams)</t>
-  </si>
-  <si>
     <t>All in One Mixture -Test Product</t>
   </si>
   <si>
-    <t>2017-10-02 03:04:56</t>
+    <t>2017-10-02 15:34</t>
   </si>
   <si>
     <t>A Saaa</t>
@@ -125,16 +209,10 @@
     <t>delhi</t>
   </si>
   <si>
-    <t>Delhi</t>
-  </si>
-  <si>
     <t xml:space="preserve">gk-1  </t>
   </si>
   <si>
-    <t>Chana Malai (Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-02 15:53:22</t>
+    <t>2017-10-03 04:23</t>
   </si>
   <si>
     <t>Angad Sehgal</t>
@@ -152,7 +230,7 @@
     <t>Get Energized</t>
   </si>
   <si>
-    <t>2017-10-03 07:06:31</t>
+    <t>2017-10-03 19:36</t>
   </si>
   <si>
     <t>Rohit Dignitas</t>
@@ -167,28 +245,10 @@
     <t>Add ress 1  address 2</t>
   </si>
   <si>
-    <t>2017-10-03 09:07:28</t>
-  </si>
-  <si>
-    <t>adada sadasd</t>
-  </si>
-  <si>
-    <t>08860327209</t>
-  </si>
-  <si>
-    <t>anela.kumar@gmail.com</t>
-  </si>
-  <si>
-    <t>sfsaf</t>
-  </si>
-  <si>
-    <t>Lakshadweep Islands</t>
-  </si>
-  <si>
-    <t>asfafs asfaf</t>
-  </si>
-  <si>
-    <t>2017-10-03 09:08:54</t>
+    <t>2017-10-03 21:37</t>
+  </si>
+  <si>
+    <t>2017-10-03 21:38</t>
   </si>
   <si>
     <t xml:space="preserve">Rohit  Testing </t>
@@ -554,7 +614,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF7"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="R1" sqref="R1"/>
@@ -626,10 +686,10 @@
         <v>18</v>
       </c>
       <c r="C2">
-        <v>6027</v>
+        <v>5953</v>
       </c>
       <c r="D2">
-        <v>10643</v>
+        <v>10617</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -641,16 +701,16 @@
         <v>21</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="J2" t="s">
         <v>22</v>
       </c>
       <c r="K2">
-        <v>220.12</v>
+        <v>208.1</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -664,7 +724,7 @@
         <v>25</v>
       </c>
       <c r="Q2">
-        <v>111111</v>
+        <v>110018</v>
       </c>
       <c r="R2" t="s">
         <v>26</v>
@@ -674,12 +734,6 @@
       </c>
       <c r="T2" t="s">
         <v>28</v>
-      </c>
-      <c r="U2" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -687,51 +741,60 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>5967</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>31</v>
       </c>
-      <c r="C3">
-        <v>6035</v>
-      </c>
-      <c r="D3">
-        <v>10645</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>200</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
       <c r="K3">
-        <v>90.32</v>
+        <v>35.4</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
       <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3">
+        <v>110046</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3">
-        <v>110048</v>
-      </c>
-      <c r="R3" t="s">
-        <v>38</v>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -739,49 +802,54 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4">
+        <v>5969</v>
+      </c>
+      <c r="D4">
+        <v>10625</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
         <v>39</v>
       </c>
-      <c r="C4">
-        <v>6039</v>
-      </c>
-      <c r="D4">
-        <v>6551</v>
-      </c>
-      <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>110.48</v>
+        <v>215.4</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
       <c r="N4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q4">
-        <v>110048</v>
+        <v>111111</v>
       </c>
       <c r="R4" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -789,93 +857,54 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5">
-        <v>6046</v>
+        <v>5970</v>
       </c>
       <c r="D5">
-        <v>10648</v>
+        <v>10625</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1300</v>
+        <v>100</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
       </c>
       <c r="K5">
-        <v>730.12</v>
+        <v>153.8</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="P5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="Q5">
         <v>111111</v>
       </c>
       <c r="R5" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="S5" t="s">
-        <v>28</v>
-      </c>
-      <c r="T5" t="s">
-        <v>28</v>
-      </c>
-      <c r="U5" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" t="s">
-        <v>28</v>
-      </c>
-      <c r="W5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -883,54 +912,54 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>6049</v>
+        <v>5971</v>
       </c>
       <c r="D6">
-        <v>10628</v>
+        <v>10625</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="H6">
         <v>2</v>
       </c>
       <c r="I6">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="K6">
-        <v>162</v>
+        <v>215.4</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="P6" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="Q6">
         <v>111111</v>
       </c>
       <c r="R6" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="S6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -938,51 +967,545 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C7">
-        <v>6050</v>
+        <v>6003</v>
       </c>
       <c r="D7">
-        <v>5951</v>
+        <v>10628</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="J7" t="s">
         <v>22</v>
       </c>
       <c r="K7">
-        <v>100</v>
+        <v>280</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="s">
+        <v>40</v>
+      </c>
+      <c r="O7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7">
+        <v>111111</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
+      <c r="S7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" t="s">
+        <v>26</v>
+      </c>
+      <c r="V7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>48</v>
       </c>
-      <c r="O7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="C8">
+        <v>6007</v>
+      </c>
+      <c r="D8">
+        <v>10628</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>100</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>106</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8">
+        <v>111111</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9">
+        <v>6010</v>
+      </c>
+      <c r="D9">
+        <v>10628</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>400</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>224</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9">
+        <v>111111</v>
+      </c>
+      <c r="R9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S9" t="s">
+        <v>26</v>
+      </c>
+      <c r="T9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>6027</v>
+      </c>
+      <c r="D10">
+        <v>10643</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10">
+        <v>225</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>220.12</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q10">
+        <v>111111</v>
+      </c>
+      <c r="R10" t="s">
+        <v>56</v>
+      </c>
+      <c r="S10" t="s">
+        <v>57</v>
+      </c>
+      <c r="T10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U10" t="s">
+        <v>28</v>
+      </c>
+      <c r="V10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11">
+        <v>6035</v>
+      </c>
+      <c r="D11">
+        <v>10645</v>
+      </c>
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="Q7">
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K11">
+        <v>90.32</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q11">
+        <v>110048</v>
+      </c>
+      <c r="R11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12">
+        <v>6039</v>
+      </c>
+      <c r="D12">
+        <v>6551</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12">
+        <v>12345</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12">
+        <v>110.48</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12" t="s">
+        <v>24</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12">
+        <v>110048</v>
+      </c>
+      <c r="R12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>6046</v>
+      </c>
+      <c r="D13">
+        <v>10648</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>1300</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>730.12</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13" t="s">
+        <v>74</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13">
+        <v>111111</v>
+      </c>
+      <c r="R13" t="s">
+        <v>56</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13" t="s">
+        <v>26</v>
+      </c>
+      <c r="U13" t="s">
+        <v>26</v>
+      </c>
+      <c r="V13" t="s">
+        <v>26</v>
+      </c>
+      <c r="W13" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14">
+        <v>6049</v>
+      </c>
+      <c r="D14">
+        <v>10628</v>
+      </c>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>162</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14">
+        <v>111111</v>
+      </c>
+      <c r="R14" t="s">
+        <v>26</v>
+      </c>
+      <c r="S14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15">
+        <v>6050</v>
+      </c>
+      <c r="D15">
+        <v>5951</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>100</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15" t="s">
+        <v>74</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15">
         <v>110018</v>
       </c>
-      <c r="R7" t="s">
-        <v>28</v>
+      <c r="R15" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/export.xlsx
+++ b/export.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="Actual Orders" sheetId="1" r:id="rId4"/>
+    <sheet name="Missing Orders" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
   <si>
     <t>S. No.</t>
   </si>
@@ -83,627 +84,791 @@
     <t>Product Selection</t>
   </si>
   <si>
-    <t>2017-10-16 11:17</t>
-  </si>
-  <si>
-    <t>Batul Mohammed</t>
-  </si>
-  <si>
-    <t>9998095119</t>
-  </si>
-  <si>
-    <t>fattamlily@gmail.com</t>
+    <t>2017-10-14 16:52</t>
+  </si>
+  <si>
+    <t>Sneh Benjamin</t>
+  </si>
+  <si>
+    <t>9810197133</t>
+  </si>
+  <si>
+    <t>the.white.paige@gmail.com</t>
+  </si>
+  <si>
+    <t>Cash On Delivery</t>
+  </si>
+  <si>
+    <t>GURGAON, HARYANA</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>NIIT Ltd | The Confluence
+A 24 | Sector 34 | Infocity 1 Hary?na</t>
+  </si>
+  <si>
+    <t>Berry Go Round (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Coconut Crisp Vanilla (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Crazy Pudhina Fox Nuts (Weight: 70 Grams)</t>
+  </si>
+  <si>
+    <t>Plum &amp;amp; Apricot (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-14 17:08</t>
+  </si>
+  <si>
+    <t>Maadhav Gulati</t>
+  </si>
+  <si>
+    <t>8859250010</t>
+  </si>
+  <si>
+    <t>Maadhavgulati16@gmail.com</t>
+  </si>
+  <si>
+    <t>Hapur</t>
+  </si>
+  <si>
+    <t>Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>46revtikunj Railway Road  Hapur</t>
+  </si>
+  <si>
+    <t>Antioxidant Vitamin-E Nuts (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Anytime Energizer (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Energetic Nutrient Blend (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Super Seeds (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Maple Cinnamon Apple Chews (Weight: 10 Grams)</t>
+  </si>
+  <si>
+    <t>Cold Coffee (2 Packs of 30 Grams)</t>
+  </si>
+  <si>
+    <t>Soya Pudina Chips (Weight : 100 Grams)</t>
+  </si>
+  <si>
+    <t>Apricot (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-14 18:31</t>
+  </si>
+  <si>
+    <t>Neha Jain</t>
+  </si>
+  <si>
+    <t>9785482119</t>
+  </si>
+  <si>
+    <t>Neha3181990@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Rajasthan</t>
+  </si>
+  <si>
+    <t>E5 nandpuri Hawa sadak jaipur 22 godam</t>
+  </si>
+  <si>
+    <t>2017-10-14 19:34</t>
+  </si>
+  <si>
+    <t>Siddharth  Jain</t>
+  </si>
+  <si>
+    <t>9620666089</t>
+  </si>
+  <si>
+    <t>jainsiddharth89@gmail.com</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>164/4 Daady's Garden
+Kammasandra Road, Hebbagodi Karnataka</t>
+  </si>
+  <si>
+    <t>Raagi Chips(Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>Moong  Jor (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>All in One Mixture (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>Fruit Leather (Weight: 20 Grams)</t>
+  </si>
+  <si>
+    <t>Salt 'n' Pepper Fox Nuts (Weight:70 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-14 20:13</t>
+  </si>
+  <si>
+    <t>Sonika Matta</t>
+  </si>
+  <si>
+    <t>9899886468</t>
+  </si>
+  <si>
+    <t>sonikam04@gmail.com</t>
   </si>
   <si>
     <t>Online Payment</t>
   </si>
   <si>
-    <t>SURAT</t>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B 14 geetanjali enclave 3rd floor  </t>
+  </si>
+  <si>
+    <t>Chipotle Roasted Sunflower Seeds (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Crispy Wheat (Weight 100 Grams)</t>
+  </si>
+  <si>
+    <t>Granola Almond Breakfast Cereal (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Crispy Moong (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>Sriracha Sweet Potato Chips  (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 00:55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manish Singh  Bhadoria </t>
+  </si>
+  <si>
+    <t>9074602447</t>
+  </si>
+  <si>
+    <t>manishbhadoria1903@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gwalior </t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mig 899 Darpan colony Thatipur </t>
+  </si>
+  <si>
+    <t>2017-10-15 06:30</t>
+  </si>
+  <si>
+    <t>Deepak  sood</t>
+  </si>
+  <si>
+    <t>9915540111</t>
+  </si>
+  <si>
+    <t>deepaksood369@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoshiarpur </t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>p&amp;j garments. near B.S.N.L exchange.  OPP Ram sharnam mandir. punjab</t>
+  </si>
+  <si>
+    <t>Daily booster - 15 Days (Weight: 75 Grams)</t>
+  </si>
+  <si>
+    <t>Chipotle Fox Nuts (Weight: 70 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 10:02</t>
+  </si>
+  <si>
+    <t>Aneesha Mistri</t>
+  </si>
+  <si>
+    <t>9820087116</t>
+  </si>
+  <si>
+    <t>info@thewrappingcompany.in</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 cleave house  90 Wodehouse Road , colaba </t>
+  </si>
+  <si>
+    <t>Gold Diwali Hamper</t>
+  </si>
+  <si>
+    <t>2017-10-15 10:06</t>
+  </si>
+  <si>
+    <t>Jasleen Sandhu</t>
+  </si>
+  <si>
+    <t>8054959045</t>
+  </si>
+  <si>
+    <t>sandhujasleen160@gmail.com</t>
+  </si>
+  <si>
+    <t>Faridkot</t>
+  </si>
+  <si>
+    <t>MBBS Girls hostel medical campus GGSMC Opposite old jail</t>
+  </si>
+  <si>
+    <t>Soya Cheese Chips (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>Soya Corn Chips (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 10:21</t>
+  </si>
+  <si>
+    <t>Akhila  Vishnupanthulu</t>
+  </si>
+  <si>
+    <t>7702852417</t>
+  </si>
+  <si>
+    <t>akhilavishnu05@gmail.com</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>Telangana</t>
+  </si>
+  <si>
+    <t>1-2-410, flat 501, Lakshmi Tirumala Residency, Gaganmahal colony, Domalguda, Hyderabad.</t>
+  </si>
+  <si>
+    <t>2017-10-15 11:02</t>
+  </si>
+  <si>
+    <t>VISWANATHAN P</t>
+  </si>
+  <si>
+    <t>9841575954</t>
+  </si>
+  <si>
+    <t>viswa.pcnc2@yahoo.com</t>
+  </si>
+  <si>
+    <t>CHENNAI</t>
+  </si>
+  <si>
+    <t>Tamil Nadu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25/66A, BHARATHIYAR STREET VENKATASAN NAGER, </t>
+  </si>
+  <si>
+    <t>Triple Berry Smoothie Mix (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Green Mango with Jeera (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 11:05</t>
+  </si>
+  <si>
+    <t>Jaspreet Kaur</t>
+  </si>
+  <si>
+    <t>7704083492</t>
+  </si>
+  <si>
+    <t>Contactneetu01@gmail.com</t>
+  </si>
+  <si>
+    <t>Lucknow</t>
+  </si>
+  <si>
+    <t>The skin art clinic,17/1, Amren House,1st floor
+Above Citibank,ashok marg, hazratganj Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Chana Jor (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>Seeds and Berries (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 11:35</t>
+  </si>
+  <si>
+    <t>Chaitra Adiga</t>
+  </si>
+  <si>
+    <t>8762313921</t>
+  </si>
+  <si>
+    <t>drchaitrap@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room no.605, donata marvel apartment, gokula extension, mathikere  </t>
+  </si>
+  <si>
+    <t>Chatpata Fruit Mix (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Vitamin E Shield (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Tangy 'n' Spicy Sweet Potato Chips  (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 11:58</t>
+  </si>
+  <si>
+    <t>Divya Santoshi</t>
+  </si>
+  <si>
+    <t>7416995768</t>
+  </si>
+  <si>
+    <t>divya.prws@gmail.com</t>
+  </si>
+  <si>
+    <t>Flat no 206, rainbow towers
+Nacharam Telangana</t>
+  </si>
+  <si>
+    <t>Cheese and Tomato Fox Nuts(Weight: 70 Grams)</t>
+  </si>
+  <si>
+    <t>Sundried Raw Masala Plantain Chips (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 12:01</t>
+  </si>
+  <si>
+    <t>Kavita Aggarwal</t>
+  </si>
+  <si>
+    <t>8860347625</t>
+  </si>
+  <si>
+    <t>kavitaggarwal98@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 A, shyam nagar, near new gobind pura, delhi 110051, Gali no 1. </t>
+  </si>
+  <si>
+    <t>2017-10-15 12:37</t>
+  </si>
+  <si>
+    <t>Priyanka Kakru</t>
+  </si>
+  <si>
+    <t>9689360643</t>
+  </si>
+  <si>
+    <t>Priyanka.kakru@gmail.com</t>
+  </si>
+  <si>
+    <t>Chandigarh</t>
+  </si>
+  <si>
+    <t>5521/G, MHC manimajra MHC, manimajra</t>
+  </si>
+  <si>
+    <t>Assorted Instant Drink Pack (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 12:41</t>
+  </si>
+  <si>
+    <t>bhaskar rao dp</t>
+  </si>
+  <si>
+    <t>9740296028</t>
+  </si>
+  <si>
+    <t>bhaskara.deshpande@gmail.com</t>
+  </si>
+  <si>
+    <t>bangalore</t>
+  </si>
+  <si>
+    <t>698a flat 405 subhodaya residency 23rd main ideal homes rajarajeshwarinagar</t>
+  </si>
+  <si>
+    <t>2017-10-15 13:09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhavesh  Chhabria </t>
+  </si>
+  <si>
+    <t>8080655500</t>
+  </si>
+  <si>
+    <t>bhaveshchhabria01@gmail.com</t>
+  </si>
+  <si>
+    <t>Ulhasnagar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heera Panna apt golmaidan near nirankari hall flat no 705 A wing </t>
+  </si>
+  <si>
+    <t>Chocolatey Smoothie Mix  (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 14:07</t>
+  </si>
+  <si>
+    <t>Divya Parmar</t>
+  </si>
+  <si>
+    <t>8758653896</t>
+  </si>
+  <si>
+    <t>madia1011@gmail.com</t>
+  </si>
+  <si>
+    <t>Vadodara</t>
   </si>
   <si>
     <t>Gujarat</t>
   </si>
   <si>
-    <t xml:space="preserve">101,TAIBA HOUSE ,1ST FLOOR FLR,43058 ,  OPP TADWAD </t>
-  </si>
-  <si>
-    <t>Coconut Crisp Vanilla (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Tulsi-Rhododendron Tea (Weight: 25 Grams)</t>
-  </si>
-  <si>
-    <t>Super Seeds (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 11:20</t>
-  </si>
-  <si>
-    <t>Nasreen  Chowdhury</t>
-  </si>
-  <si>
-    <t>9836194807</t>
-  </si>
-  <si>
-    <t>ridokuri@gmail.com</t>
-  </si>
-  <si>
-    <t>Cash On Delivery</t>
-  </si>
-  <si>
-    <t>Midnapore</t>
+    <t xml:space="preserve">T/b-5 vaibhav bunglows Bh inox multiplex race course road </t>
+  </si>
+  <si>
+    <t>Jowar Puff (Weight: 80 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 14:12</t>
+  </si>
+  <si>
+    <t>Kavita Bika</t>
+  </si>
+  <si>
+    <t>9829950490</t>
+  </si>
+  <si>
+    <t>kavitarathore204@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaipur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-142 Durga path
+Amba bari Rajasthan </t>
+  </si>
+  <si>
+    <t>2017-10-15 14:22</t>
+  </si>
+  <si>
+    <t>Ishani Ramani</t>
+  </si>
+  <si>
+    <t>7567068755</t>
+  </si>
+  <si>
+    <t>ishanivadadoriya@yahoo.in</t>
+  </si>
+  <si>
+    <t>surat</t>
+  </si>
+  <si>
+    <t>A-1,Trikamnagar-1 JB road  opp new zone office,LH road-surat 395006</t>
+  </si>
+  <si>
+    <t>2017-10-15 14:44</t>
+  </si>
+  <si>
+    <t>Reena D</t>
+  </si>
+  <si>
+    <t>9892811462</t>
+  </si>
+  <si>
+    <t>reenadadial@gmail.com</t>
+  </si>
+  <si>
+    <t>Challenger Building No 3, Flat 406,Thakur Village.Kandivali-East Maharashtra</t>
+  </si>
+  <si>
+    <t>Platinum Diwali Hamper</t>
+  </si>
+  <si>
+    <t>2017-10-15 15:11</t>
+  </si>
+  <si>
+    <t>Anisha Motwani</t>
+  </si>
+  <si>
+    <t>9830808004</t>
+  </si>
+  <si>
+    <t>anisha4@gmail.com</t>
+  </si>
+  <si>
+    <t>Kolkata</t>
   </si>
   <si>
     <t>West Bengal</t>
   </si>
   <si>
-    <t>Room no.76,girls hostel,Midnapore medical college and hospital,paschim midnapur West bengal</t>
-  </si>
-  <si>
-    <t>Girls hostel,Midnapore medical college and hospital Midnapore</t>
-  </si>
-  <si>
-    <t>Chatpata Fruit Mix (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Fruit Leather (Weight: 20 Grams)</t>
-  </si>
-  <si>
-    <t>Maple Cinnamon Apple Chews (Weight: 10 Grams)</t>
-  </si>
-  <si>
-    <t>Soya Cheese Chips (Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>Sriracha Sweet Potato Chips  (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Fruity Fusion (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Tangy 'n' Spicy Sweet Potato Chips  (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 11:39</t>
-  </si>
-  <si>
-    <t>saumya verma</t>
-  </si>
-  <si>
-    <t>9873124903</t>
-  </si>
-  <si>
-    <t>saumyaleo31@gmail.com</t>
-  </si>
-  <si>
-    <t>noida</t>
-  </si>
-  <si>
-    <t>Uttar Pradesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#305, Azure Heights, Supertech, Sector 34 </t>
-  </si>
-  <si>
-    <t>All in One Mixture (Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>Crispy Moong (Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>Soya Pudina Chips (Weight : 100 Grams)</t>
-  </si>
-  <si>
-    <t>Get Energized (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 12:14</t>
-  </si>
-  <si>
-    <t>Veena M</t>
-  </si>
-  <si>
-    <t>7988950742</t>
-  </si>
-  <si>
-    <t>veena.vision@gmail.com</t>
-  </si>
-  <si>
-    <t>Karnal</t>
-  </si>
-  <si>
-    <t>Haryana</t>
-  </si>
-  <si>
-    <t>H no 476, first floor, near TV tower, sector 5,
-Karnal Haryana</t>
-  </si>
-  <si>
-    <t>H no 467, first floor, near TV tower, sector 5 Karnal</t>
-  </si>
-  <si>
-    <t>2017-10-16 12:32</t>
-  </si>
-  <si>
-    <t>Himanshu Tanwar</t>
-  </si>
-  <si>
-    <t>7289928146</t>
-  </si>
-  <si>
-    <t>himanshust01@icloud.com</t>
-  </si>
-  <si>
-    <t>New delhi</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
-    <t>Wz 635 D1 
-Nangal Raya Delhi</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wz 635 D1 Nangal Raya Near Kumar Tailors </t>
-  </si>
-  <si>
-    <t>Raagi Chips(Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>Green Mango with Jeera (Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 12:35</t>
-  </si>
-  <si>
-    <t>Supriya Rao</t>
-  </si>
-  <si>
-    <t>7259200765</t>
-  </si>
-  <si>
-    <t>supriya.igtc@gmail.com</t>
-  </si>
-  <si>
-    <t>Ernakulam</t>
-  </si>
-  <si>
-    <t>Kerala</t>
-  </si>
-  <si>
-    <t>Sooryakamal, Kalariparambil Road
-Muppathadom, Aluva Kerala</t>
-  </si>
-  <si>
-    <t>Chipotle Roasted Sunflower Seeds (Weight: 50 Grams)</t>
+    <t xml:space="preserve">1 D Neelam Apartments, 61 B Park Street </t>
+  </si>
+  <si>
+    <t>Tomato Fox Nuts (Weight: 70 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 15:25</t>
+  </si>
+  <si>
+    <t>Shalini N</t>
+  </si>
+  <si>
+    <t>9959477552</t>
+  </si>
+  <si>
+    <t>shalu.nekkanti@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajahmundry</t>
+  </si>
+  <si>
+    <t>Andhra Pradesh</t>
+  </si>
+  <si>
+    <t>S-1, Oak residency Apartments,beside state bank of hyderabad Tilak road</t>
+  </si>
+  <si>
+    <t>Travel Mix (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Nutty Apricot Power Cluster  (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Sriracha Sunflower Seeds (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 15:39</t>
+  </si>
+  <si>
+    <t>Rajeev Vallechha</t>
+  </si>
+  <si>
+    <t>8224907100</t>
+  </si>
+  <si>
+    <t>rajiv6565@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhamtari</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>C/o dena bank Near old bus stand, jagdalpur road</t>
+  </si>
+  <si>
+    <t>Chocolate Strawberry Cheesecake (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>Soya Bean (Weight: 100 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 15:55</t>
+  </si>
+  <si>
+    <t>Janie  Salor</t>
+  </si>
+  <si>
+    <t>9035513607</t>
+  </si>
+  <si>
+    <t>janiesalor91@gmail.com</t>
+  </si>
+  <si>
+    <t>Neyyoor post,kanniya kumari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13/20c salor cottage, Mankuzhi road,monday market,kanniya kumari </t>
+  </si>
+  <si>
+    <t>2017-10-15 15:56</t>
+  </si>
+  <si>
+    <t>Bharat  RAj</t>
+  </si>
+  <si>
+    <t>9739008139</t>
+  </si>
+  <si>
+    <t>bhp4298@gmail.com</t>
+  </si>
+  <si>
+    <t>No45,1st stage, beml layout,basaveshwaranagar, Karnataka</t>
+  </si>
+  <si>
+    <t>2017-10-15 16:03</t>
+  </si>
+  <si>
+    <t>Amit  Sinha</t>
+  </si>
+  <si>
+    <t>9918030888</t>
+  </si>
+  <si>
+    <t>ameetsinha@yahoo.com</t>
+  </si>
+  <si>
+    <t>4/399 vijayant khand 
+Gomti Nagar Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>2017-10-15 16:33</t>
+  </si>
+  <si>
+    <t>Sheela Sujay</t>
+  </si>
+  <si>
+    <t>9945455800</t>
+  </si>
+  <si>
+    <t>Sheela.sujay@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#48/b, 4th main,  Mathikere extn </t>
+  </si>
+  <si>
+    <t>2017-10-15 16:37</t>
+  </si>
+  <si>
+    <t>Anuranjan Rakwal</t>
+  </si>
+  <si>
+    <t>8050506254</t>
+  </si>
+  <si>
+    <t>anuranjan_rakwal@yahoo.com</t>
+  </si>
+  <si>
+    <t>207 SMR Vinay Vatika Apartments, Naginpalaya Main Road Marutiseva Nagar</t>
   </si>
   <si>
     <t>Cheese Fox Nuts (Weight: 70 Grams)</t>
   </si>
   <si>
-    <t>2017-10-16 13:06</t>
-  </si>
-  <si>
-    <t>kashish sharma</t>
-  </si>
-  <si>
-    <t>7838284895</t>
-  </si>
-  <si>
-    <t>kashish1311@gmail.com</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>Karnataka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orion Building, Bagmane Constellation Business Park, Doddanekundi </t>
-  </si>
-  <si>
-    <t>Tomato Fox Nuts (Weight: 70 Grams)</t>
-  </si>
-  <si>
-    <t>Seeds and Berries (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Moong  Jor (Weight: 100 Grams)</t>
+    <t>Sriracha Fox Nuts (Weight: 70 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-14 18:28</t>
+  </si>
+  <si>
+    <t>2017-10-15 12:36</t>
+  </si>
+  <si>
+    <t>2017-10-15 12:53</t>
+  </si>
+  <si>
+    <t>Rashil Sindhu</t>
+  </si>
+  <si>
+    <t>8950115572</t>
+  </si>
+  <si>
+    <t>rashils17@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ambala City </t>
+  </si>
+  <si>
+    <t xml:space="preserve">609, sector-9 Haryana </t>
+  </si>
+  <si>
+    <t>2017-10-15 14:41</t>
+  </si>
+  <si>
+    <t>Sreevidya Lakshmi</t>
+  </si>
+  <si>
+    <t>9994148195</t>
+  </si>
+  <si>
+    <t>Sree.sboa@gmail.com</t>
+  </si>
+  <si>
+    <t>Coimbatore</t>
+  </si>
+  <si>
+    <t>87a, Kumaraswamy Street Rathinapuri</t>
+  </si>
+  <si>
+    <t>Lemon Ginger Instant Energy Drink (Weight: 100 Grams)</t>
   </si>
   <si>
     <t>Khakra (Weight: 90 Grams)</t>
   </si>
   <si>
-    <t>Soya Corn Chips (Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 13:35</t>
-  </si>
-  <si>
-    <t>Balquees Muneer</t>
-  </si>
-  <si>
-    <t>8105774473</t>
-  </si>
-  <si>
-    <t>balqueesmuneer@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">264, 2nd floor, 5th Main Road, viveknagar </t>
-  </si>
-  <si>
-    <t>Anytime Energizer (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Berry Go Round (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Cheese and Tomato Fox Nuts(Weight: 70 Grams)</t>
-  </si>
-  <si>
-    <t>Chipotle Fox Nuts (Weight: 70 Grams)</t>
-  </si>
-  <si>
-    <t>Crazy Pudhina Fox Nuts (Weight: 70 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 13:45</t>
-  </si>
-  <si>
-    <t>Shrikant Motarwar</t>
-  </si>
-  <si>
-    <t>9975632500</t>
-  </si>
-  <si>
-    <t>Shrikant.mortarwar@sc.com</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>Maharashtra</t>
-  </si>
-  <si>
-    <t>Standard Chartered Bank, B2 IT cerebrum park Opp kumar city, kalyani nagar, pune</t>
+    <t>Seedy Mix (Weight: 50 Grams)</t>
+  </si>
+  <si>
+    <t>2017-10-15 15:30</t>
+  </si>
+  <si>
+    <t>preeti kanodia</t>
+  </si>
+  <si>
+    <t>8420768496</t>
+  </si>
+  <si>
+    <t>preetikanodia93@gmail.com</t>
+  </si>
+  <si>
+    <t>25/1 shaeseare sarani 6 th floor
+above khosala electronics west begal</t>
   </si>
   <si>
     <t>Bajra Puff (Weight: 80 Grams)</t>
   </si>
   <si>
-    <t>Chana Jor (Weight: 100 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 14:26</t>
-  </si>
-  <si>
-    <t>sarita sukumaran</t>
-  </si>
-  <si>
-    <t>9601660780</t>
-  </si>
-  <si>
-    <t>sukumaran_sarita@yahoo.com</t>
-  </si>
-  <si>
-    <t>Ahmadabad City</t>
-  </si>
-  <si>
-    <t>C-101, Shlok Exotica , Meghna Society Road, Behind BSNL office, Bopal</t>
-  </si>
-  <si>
-    <t>Travel Mix (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Seedy Mix (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 14:34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JASPREET  Singh </t>
-  </si>
-  <si>
-    <t>9456235394</t>
-  </si>
-  <si>
-    <t>jaspreetsinghzhcet@gmail.com</t>
-  </si>
-  <si>
-    <t>Aligarh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201 AVAS VIKAS COLONY
-G.T. ROAD NEAR MAKHANLAL HOSPITAL UTTAR Pradesh </t>
-  </si>
-  <si>
-    <t>2017-10-16 15:44</t>
-  </si>
-  <si>
-    <t>Chetan Sangwaiya</t>
-  </si>
-  <si>
-    <t>9899893927</t>
-  </si>
-  <si>
-    <t>chetansangwaiya@yahoo.in</t>
-  </si>
-  <si>
-    <t>2404, 15th A Cross, 26th Main HSR Layout, Sector - 1</t>
-  </si>
-  <si>
-    <t>2404, 15th A Cross, 26th Main HSR Layout Sector - 1</t>
-  </si>
-  <si>
-    <t>Gold Diwali Hamper</t>
-  </si>
-  <si>
-    <t>2017-10-16 16:00</t>
-  </si>
-  <si>
-    <t>ramila karia</t>
-  </si>
-  <si>
-    <t>9833509920</t>
-  </si>
-  <si>
-    <t>shahpriyashah12@gmail.com</t>
-  </si>
-  <si>
-    <t>mumbai</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29-b24 rameshwar soc mhada svp nagar andheri west </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple Cinnamon Granola Bar (3 Bars) </t>
-  </si>
-  <si>
-    <t>2017-10-16 16:36</t>
-  </si>
-  <si>
-    <t>shilpi ravi</t>
-  </si>
-  <si>
-    <t>8884692529</t>
-  </si>
-  <si>
-    <t>shilpi_brock@yahoo.co.in</t>
-  </si>
-  <si>
-    <t>bangalore</t>
-  </si>
-  <si>
-    <t>texport industries pvt ltd. 154, 3rd cross, 5th main yeshwanthpur, industrial suburb</t>
-  </si>
-  <si>
-    <t>Brain Power (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 16:44</t>
-  </si>
-  <si>
-    <t>Radheesh PM</t>
-  </si>
-  <si>
-    <t>9710704919</t>
-  </si>
-  <si>
-    <t>radheesh.pm@gmail.com</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>5, Kamaraj St, Rajiv Gandhi Nagar Alapakkam</t>
-  </si>
-  <si>
-    <t>Antioxidant Vitamin-E Nuts (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Premium Diwali Hamper</t>
-  </si>
-  <si>
-    <t>2017-10-16 16:51</t>
-  </si>
-  <si>
-    <t>Brendon Dacruz</t>
-  </si>
-  <si>
-    <t>9632353561</t>
-  </si>
-  <si>
-    <t>brendon_dacruz@hotmail.com</t>
-  </si>
-  <si>
-    <t>Flat No 302 , Shri Balaji Nest Appt, 1st Cross Kuvempu Road, Vignananagar
-Opposite fair choice supermarket Karnataka</t>
-  </si>
-  <si>
-    <t>2017-10-16 17:24</t>
-  </si>
-  <si>
-    <t>Rajeshwari Thengil</t>
-  </si>
-  <si>
-    <t>8411066266</t>
-  </si>
-  <si>
-    <t>rajeshwarithengil@yahoo.com</t>
-  </si>
-  <si>
-    <t>Solapur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D.D.Shejal , NarmadaApt flat no.1, near 7th  heaven G1 24/1 RLY LINES ,Solapur 413001 </t>
-  </si>
-  <si>
-    <t>Daily booster - 15 Days (Weight: 75 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 18:09</t>
-  </si>
-  <si>
-    <t>Vrinda Gupta</t>
-  </si>
-  <si>
-    <t>9999566973</t>
-  </si>
-  <si>
-    <t>vrindaorgupta@gmail.com</t>
-  </si>
-  <si>
-    <t>F-27A, third floor,single storey
-Vijay nagar Delhi</t>
-  </si>
-  <si>
-    <t>Apricot (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>Salt 'n' Pepper Fox Nuts (Weight:70 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 18:34</t>
-  </si>
-  <si>
-    <t>Swagatam Baksi</t>
-  </si>
-  <si>
-    <t>9433819894</t>
-  </si>
-  <si>
-    <t>swagatam.nrs@gmail.com</t>
-  </si>
-  <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
-    <t>Niravra Co operative Housing Society Ltd, Flat no- 9/16, D Type
-EKTP, Phase-4 West Bengal</t>
-  </si>
-  <si>
-    <t>Plum &amp;amp; Apricot (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 20:18</t>
-  </si>
-  <si>
-    <t>Bhavika Jain</t>
-  </si>
-  <si>
-    <t>9886819375</t>
-  </si>
-  <si>
-    <t>shanujain5678@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangalore </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shri sannidhi castle Apartments Flat no.304 11th main 12th cross Wilson Garden </t>
-  </si>
-  <si>
-    <t>Triple Berry Smoothie Mix (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 20:41</t>
-  </si>
-  <si>
-    <t>DR SONALI KOLTE</t>
-  </si>
-  <si>
-    <t>9833977379</t>
-  </si>
-  <si>
-    <t>sonalikolte.kolte1@gmail.com</t>
-  </si>
-  <si>
-    <t>MUMBAI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madhuban DSK, A2/107, Mehra compound, opposite sakinaka telephone exchange, sakinaka, Andheri east </t>
-  </si>
-  <si>
-    <t>Granola Almond Breakfast Cereal (Weight: 50 Grams)</t>
-  </si>
-  <si>
-    <t>2017-10-16 21:32</t>
-  </si>
-  <si>
-    <t>Reshma Koradia</t>
-  </si>
-  <si>
-    <t>9898136765</t>
-  </si>
-  <si>
-    <t>reshma.s.koradia@gmail.com</t>
-  </si>
-  <si>
-    <t>Ahmedabad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22 khoja society, Kankaria </t>
-  </si>
-  <si>
-    <t>Salem</t>
-  </si>
-  <si>
-    <t>B-1, OPG Tower 20, Gandhi road</t>
-  </si>
-  <si>
-    <t>Loved By All Pack</t>
-  </si>
-  <si>
-    <t>Platinum Diwali Hamper</t>
-  </si>
-  <si>
-    <t>2017-10-17 02:04</t>
-  </si>
-  <si>
-    <t>Ghena Thadani</t>
-  </si>
-  <si>
-    <t>9870469994</t>
-  </si>
-  <si>
-    <t>ghenathadani@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai </t>
-  </si>
-  <si>
-    <t xml:space="preserve">301 parag apts 3rd floor 27, pedder rd, above Citibank  </t>
-  </si>
-  <si>
-    <t>2017-10-17 08:11</t>
-  </si>
-  <si>
-    <t>Vanshika Singhal</t>
-  </si>
-  <si>
-    <t>9927240869</t>
-  </si>
-  <si>
-    <t>vanshikasinghal13579@gmail.com</t>
-  </si>
-  <si>
-    <t>Hapur</t>
-  </si>
-  <si>
-    <t>Manoj singhal nihal chand building
-Chandi road Uttarpradesh</t>
-  </si>
-  <si>
-    <t>Crispy Wheat (Weight 100 Grams)</t>
-  </si>
-  <si>
-    <t>Assorted Instant Drink Pack (Weight: 100 Grams)</t>
+    <t>2017-10-15 16:02</t>
+  </si>
+  <si>
+    <t>2017-10-15 16:32</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1225,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF25"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="V1" sqref="V1"/>
@@ -1068,7 +1233,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:37">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:37">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1144,10 +1309,10 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>7446</v>
+        <v>7374</v>
       </c>
       <c r="D2">
-        <v>11529</v>
+        <v>6300</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
@@ -1159,16 +1324,16 @@
         <v>25</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="J2" t="s">
         <v>26</v>
       </c>
       <c r="K2">
-        <v>324.8</v>
+        <v>308</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -1182,7 +1347,7 @@
         <v>29</v>
       </c>
       <c r="Q2">
-        <v>395003</v>
+        <v>122001</v>
       </c>
       <c r="R2" t="s">
         <v>27</v>
@@ -1194,7 +1359,7 @@
         <v>29</v>
       </c>
       <c r="U2">
-        <v>395003</v>
+        <v>122001</v>
       </c>
       <c r="V2" t="s">
         <v>30</v>
@@ -1206,45 +1371,42 @@
         <v>32</v>
       </c>
       <c r="Y2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:37">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>7447</v>
+        <v>7375</v>
       </c>
       <c r="D3">
-        <v>11237</v>
+        <v>11493</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I3">
-        <v>440</v>
+        <v>800</v>
       </c>
       <c r="J3" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K3">
-        <v>543.2</v>
+        <v>957.6</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -1258,7 +1420,7 @@
         <v>40</v>
       </c>
       <c r="Q3">
-        <v>721101</v>
+        <v>245101</v>
       </c>
       <c r="R3" t="s">
         <v>38</v>
@@ -1267,40 +1429,58 @@
         <v>38</v>
       </c>
       <c r="T3" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3">
+        <v>245101</v>
+      </c>
+      <c r="V3" t="s">
         <v>41</v>
       </c>
-      <c r="U3">
-        <v>721101</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
         <v>42</v>
       </c>
-      <c r="W3" t="s">
-        <v>30</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>44</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC3" t="s">
         <v>45</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3" t="s">
         <v>46</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>47</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AH3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI3" t="s">
         <v>48</v>
       </c>
+      <c r="AJ3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:37">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1308,10 +1488,10 @@
         <v>49</v>
       </c>
       <c r="C4">
-        <v>7448</v>
+        <v>7377</v>
       </c>
       <c r="D4">
-        <v>11530</v>
+        <v>11360</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
@@ -1323,16 +1503,16 @@
         <v>52</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>490</v>
+        <v>50</v>
       </c>
       <c r="J4" t="s">
         <v>26</v>
       </c>
       <c r="K4">
-        <v>312.48</v>
+        <v>120.56</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -1346,7 +1526,7 @@
         <v>55</v>
       </c>
       <c r="Q4">
-        <v>201301</v>
+        <v>302001</v>
       </c>
       <c r="R4" t="s">
         <v>53</v>
@@ -1358,101 +1538,92 @@
         <v>55</v>
       </c>
       <c r="U4">
-        <v>201301</v>
+        <v>302001</v>
       </c>
       <c r="V4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" t="s">
-        <v>57</v>
-      </c>
-      <c r="X4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:37">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>7450</v>
+        <v>7378</v>
       </c>
       <c r="D5">
-        <v>8994</v>
+        <v>4038</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I5">
-        <v>240</v>
+        <v>490</v>
       </c>
       <c r="J5" t="s">
         <v>26</v>
       </c>
       <c r="K5">
-        <v>232.96</v>
+        <v>356.16</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
       <c r="N5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q5">
+        <v>560099</v>
+      </c>
+      <c r="R5" t="s">
+        <v>60</v>
+      </c>
+      <c r="S5" t="s">
+        <v>60</v>
+      </c>
+      <c r="T5" t="s">
+        <v>62</v>
+      </c>
+      <c r="U5">
+        <v>560099</v>
+      </c>
+      <c r="V5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W5" t="s">
         <v>64</v>
       </c>
-      <c r="O5" t="s">
+      <c r="X5" t="s">
         <v>65</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Y5" t="s">
         <v>66</v>
       </c>
-      <c r="Q5">
-        <v>132001</v>
-      </c>
-      <c r="R5" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" t="s">
-        <v>64</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="Z5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA5" t="s">
         <v>67</v>
       </c>
-      <c r="U5">
-        <v>132001</v>
-      </c>
-      <c r="V5" t="s">
-        <v>42</v>
-      </c>
-      <c r="W5" t="s">
-        <v>42</v>
-      </c>
-      <c r="X5" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:37">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1460,10 +1631,10 @@
         <v>68</v>
       </c>
       <c r="C6">
-        <v>7451</v>
+        <v>7379</v>
       </c>
       <c r="D6">
-        <v>7527</v>
+        <v>11495</v>
       </c>
       <c r="E6" t="s">
         <v>69</v>
@@ -1475,21 +1646,21 @@
         <v>71</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>600</v>
+        <v>460</v>
       </c>
       <c r="J6" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="K6">
-        <v>342.272</v>
+        <v>403.2</v>
       </c>
       <c r="L6"/>
       <c r="M6"/>
       <c r="N6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
         <v>73</v>
@@ -1498,1475 +1669,2791 @@
         <v>74</v>
       </c>
       <c r="Q6">
-        <v>110046</v>
+        <v>110017</v>
       </c>
       <c r="R6" t="s">
+        <v>73</v>
+      </c>
+      <c r="S6" t="s">
+        <v>73</v>
+      </c>
+      <c r="T6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U6">
+        <v>110017</v>
+      </c>
+      <c r="V6" t="s">
         <v>75</v>
       </c>
-      <c r="S6" t="s">
-        <v>75</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>76</v>
       </c>
-      <c r="U6">
-        <v>110046</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="X6" t="s">
         <v>77</v>
       </c>
-      <c r="W6" t="s">
-        <v>77</v>
-      </c>
-      <c r="X6" t="s">
-        <v>57</v>
-      </c>
       <c r="Y6" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="AA6" t="s">
-        <v>78</v>
+        <v>45</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:37">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>7452</v>
+        <v>7380</v>
       </c>
       <c r="D7">
-        <v>7179</v>
+        <v>11497</v>
       </c>
       <c r="E7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>440</v>
+        <v>650</v>
       </c>
       <c r="J7" t="s">
         <v>26</v>
       </c>
       <c r="K7">
-        <v>340.48</v>
+        <v>589.68</v>
       </c>
       <c r="L7"/>
       <c r="M7"/>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7">
+        <v>474011</v>
+      </c>
+      <c r="R7" t="s">
         <v>84</v>
       </c>
-      <c r="P7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q7">
-        <v>683110</v>
-      </c>
-      <c r="R7" t="s">
-        <v>83</v>
-      </c>
       <c r="S7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="U7">
-        <v>683110</v>
+        <v>474011</v>
       </c>
       <c r="V7" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="W7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="X7" t="s">
-        <v>77</v>
+        <v>44</v>
       </c>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="Z7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA7" t="s">
-        <v>48</v>
+        <v>44</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:37">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8">
+        <v>7381</v>
+      </c>
+      <c r="D8">
+        <v>10257</v>
+      </c>
+      <c r="E8" t="s">
         <v>88</v>
       </c>
-      <c r="C8">
-        <v>7454</v>
-      </c>
-      <c r="D8">
-        <v>11531</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>89</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>90</v>
       </c>
-      <c r="G8" t="s">
-        <v>91</v>
-      </c>
       <c r="H8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>410</v>
+        <v>750</v>
       </c>
       <c r="J8" t="s">
         <v>26</v>
       </c>
       <c r="K8">
-        <v>297.36</v>
+        <v>896</v>
       </c>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
         <v>92</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>93</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8">
+        <v>146001</v>
+      </c>
+      <c r="R8" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8">
+        <v>146001</v>
+      </c>
+      <c r="V8" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA8" t="s">
         <v>94</v>
       </c>
-      <c r="Q8">
-        <v>560037</v>
-      </c>
-      <c r="R8" t="s">
-        <v>92</v>
-      </c>
-      <c r="S8" t="s">
-        <v>92</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="AB8" t="s">
         <v>94</v>
       </c>
-      <c r="U8">
-        <v>560037</v>
-      </c>
-      <c r="V8" t="s">
+      <c r="AC8" t="s">
         <v>95</v>
       </c>
-      <c r="W8" t="s">
-        <v>96</v>
-      </c>
-      <c r="X8" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>99</v>
+      <c r="AD8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:37">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C9">
-        <v>7455</v>
+        <v>7382</v>
       </c>
       <c r="D9">
-        <v>6123</v>
+        <v>11498</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H9">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I9">
-        <v>340</v>
+        <v>0</v>
       </c>
       <c r="J9" t="s">
         <v>26</v>
       </c>
       <c r="K9">
-        <v>481.6</v>
+        <v>4972.8</v>
       </c>
       <c r="L9"/>
       <c r="M9"/>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="Q9">
-        <v>560047</v>
+        <v>400005</v>
       </c>
       <c r="R9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="T9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U9">
-        <v>560047</v>
+        <v>400005</v>
       </c>
       <c r="V9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="W9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="X9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Y9" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Z9" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="AA9" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="AB9" t="s">
-        <v>109</v>
+        <v>103</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:37">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C10">
-        <v>7457</v>
+        <v>7383</v>
       </c>
       <c r="D10">
-        <v>11533</v>
+        <v>11279</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I10">
-        <v>750</v>
+        <v>520</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K10">
-        <v>635.04</v>
+        <v>336</v>
       </c>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="O10" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="Q10">
-        <v>411014</v>
+        <v>151203</v>
       </c>
       <c r="R10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="S10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="T10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="U10">
-        <v>411014</v>
+        <v>151203</v>
       </c>
       <c r="V10" t="s">
-        <v>117</v>
+        <v>66</v>
       </c>
       <c r="W10" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="X10" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="Z10" t="s">
-        <v>30</v>
+        <v>111</v>
       </c>
       <c r="AA10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:37">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C11">
-        <v>7458</v>
+        <v>7384</v>
       </c>
       <c r="D11">
-        <v>11535</v>
+        <v>11499</v>
       </c>
       <c r="E11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>200</v>
+        <v>410</v>
       </c>
       <c r="J11" t="s">
         <v>26</v>
       </c>
       <c r="K11">
-        <v>211.68</v>
+        <v>287.28</v>
       </c>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="Q11">
-        <v>380058</v>
+        <v>500029</v>
       </c>
       <c r="R11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="S11" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="T11" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="U11">
-        <v>380058</v>
+        <v>500029</v>
       </c>
       <c r="V11" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="W11" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="X11" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="Y11" t="s">
-        <v>126</v>
+        <v>47</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:37">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C12">
-        <v>7459</v>
+        <v>7385</v>
       </c>
       <c r="D12">
-        <v>6255</v>
+        <v>11500</v>
       </c>
       <c r="E12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K12">
-        <v>210.56</v>
+        <v>399.84</v>
       </c>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>124</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="Q12">
-        <v>202001</v>
+        <v>600082</v>
       </c>
       <c r="R12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="S12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="T12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="U12">
-        <v>202001</v>
+        <v>600082</v>
       </c>
       <c r="V12" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="W12" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="X12" t="s">
-        <v>58</v>
+        <v>127</v>
       </c>
       <c r="Y12" t="s">
-        <v>99</v>
+        <v>45</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:37">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C13">
-        <v>7461</v>
+        <v>7386</v>
       </c>
       <c r="D13">
-        <v>11536</v>
+        <v>11013</v>
       </c>
       <c r="E13" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="J13" t="s">
         <v>26</v>
       </c>
       <c r="K13">
-        <v>372.96</v>
+        <v>688.8</v>
       </c>
       <c r="L13"/>
       <c r="M13"/>
       <c r="N13" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="O13" t="s">
-        <v>93</v>
+        <v>39</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q13">
-        <v>560102</v>
+        <v>226001</v>
       </c>
       <c r="R13" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="S13" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="T13" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="U13">
-        <v>560102</v>
+        <v>226001</v>
       </c>
       <c r="V13" t="s">
-        <v>139</v>
+        <v>41</v>
+      </c>
+      <c r="W13" t="s">
+        <v>42</v>
+      </c>
+      <c r="X13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:37">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C14">
-        <v>7463</v>
+        <v>7387</v>
       </c>
       <c r="D14">
-        <v>11537</v>
+        <v>11501</v>
       </c>
       <c r="E14" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F14" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K14">
-        <v>362.88</v>
+        <v>464.8</v>
       </c>
       <c r="L14"/>
       <c r="M14"/>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="O14" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="P14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="Q14">
-        <v>400053</v>
+        <v>560054</v>
       </c>
       <c r="R14" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="S14" t="s">
-        <v>144</v>
+        <v>60</v>
       </c>
       <c r="T14" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="U14">
-        <v>400053</v>
+        <v>560054</v>
       </c>
       <c r="V14" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="W14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:37">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15">
+        <v>7388</v>
+      </c>
+      <c r="D15">
+        <v>6142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" t="s">
+        <v>146</v>
+      </c>
+      <c r="G15" t="s">
         <v>147</v>
       </c>
-      <c r="C15">
-        <v>7465</v>
-      </c>
-      <c r="D15">
-        <v>11539</v>
-      </c>
-      <c r="E15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" t="s">
-        <v>149</v>
-      </c>
-      <c r="G15" t="s">
-        <v>150</v>
-      </c>
       <c r="H15">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>270</v>
+        <v>415</v>
       </c>
       <c r="J15" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="K15">
-        <v>226.8</v>
+        <v>495.6</v>
       </c>
       <c r="L15"/>
       <c r="M15"/>
       <c r="N15" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="O15" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="P15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q15">
-        <v>560022</v>
+        <v>500076</v>
       </c>
       <c r="R15" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="S15" t="s">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="T15" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U15">
-        <v>560022</v>
+        <v>500076</v>
       </c>
       <c r="V15" t="s">
-        <v>153</v>
+        <v>30</v>
       </c>
       <c r="W15" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s">
-        <v>109</v>
+        <v>31</v>
       </c>
       <c r="Y15" t="s">
-        <v>99</v>
+        <v>94</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>143</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:37">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16">
+        <v>7389</v>
+      </c>
+      <c r="D16">
+        <v>1894</v>
+      </c>
+      <c r="E16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F16" t="s">
+        <v>153</v>
+      </c>
+      <c r="G16" t="s">
         <v>154</v>
       </c>
-      <c r="C16">
-        <v>7466</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
-        <v>155</v>
-      </c>
-      <c r="F16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G16" t="s">
-        <v>157</v>
-      </c>
       <c r="H16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I16">
-        <v>120</v>
+        <v>550</v>
       </c>
       <c r="J16" t="s">
         <v>26</v>
       </c>
       <c r="K16">
-        <v>559.44</v>
+        <v>534.24</v>
       </c>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="O16" t="s">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="P16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="Q16">
-        <v>600116</v>
+        <v>110051</v>
       </c>
       <c r="R16" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="S16" t="s">
-        <v>158</v>
+        <v>73</v>
       </c>
       <c r="T16" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="U16">
-        <v>600116</v>
+        <v>110051</v>
       </c>
       <c r="V16" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="W16" t="s">
-        <v>146</v>
+        <v>30</v>
       </c>
       <c r="X16" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="Y16" t="s">
-        <v>162</v>
+        <v>141</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:32">
+    <row r="17" spans="1:37">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C17">
-        <v>7467</v>
+        <v>7391</v>
       </c>
       <c r="D17">
-        <v>10815</v>
+        <v>11502</v>
       </c>
       <c r="E17" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="H17">
         <v>3</v>
       </c>
       <c r="I17">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="K17">
-        <v>229.6</v>
+        <v>211.48</v>
       </c>
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="O17" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="Q17">
-        <v>560075</v>
+        <v>160101</v>
       </c>
       <c r="R17" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="S17" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="T17" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="U17">
-        <v>560075</v>
+        <v>160101</v>
       </c>
       <c r="V17" t="s">
-        <v>105</v>
+        <v>30</v>
       </c>
       <c r="W17" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="X17" t="s">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
-    <row r="18" spans="1:32">
+    <row r="18" spans="1:37">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C18">
-        <v>7470</v>
+        <v>7392</v>
       </c>
       <c r="D18">
-        <v>11540</v>
+        <v>11503</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>225</v>
+        <v>420</v>
       </c>
       <c r="J18" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K18">
-        <v>313.6</v>
+        <v>352.8</v>
       </c>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>115</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="Q18">
-        <v>413001</v>
+        <v>560098</v>
       </c>
       <c r="R18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S18" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="T18" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="U18">
-        <v>413001</v>
+        <v>560098</v>
       </c>
       <c r="V18" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="W18" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s">
-        <v>77</v>
+        <v>31</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>150</v>
       </c>
     </row>
-    <row r="19" spans="1:32">
+    <row r="19" spans="1:37">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C19">
-        <v>7472</v>
+        <v>7394</v>
       </c>
       <c r="D19">
-        <v>10797</v>
+        <v>11489</v>
       </c>
       <c r="E19" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I19">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="J19" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K19">
-        <v>328.16</v>
+        <v>347.2</v>
       </c>
       <c r="L19"/>
       <c r="M19"/>
       <c r="N19" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="Q19">
-        <v>110009</v>
+        <v>421002</v>
       </c>
       <c r="R19" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="S19" t="s">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="T19" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="U19">
-        <v>110009</v>
+        <v>421002</v>
       </c>
       <c r="V19" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="W19" t="s">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="X19" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="Z19" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:32">
+    <row r="20" spans="1:37">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="C20">
-        <v>7473</v>
+        <v>7395</v>
       </c>
       <c r="D20">
-        <v>7391</v>
+        <v>11504</v>
       </c>
       <c r="E20" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="F20" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="I20">
-        <v>250</v>
+        <v>750</v>
       </c>
       <c r="J20" t="s">
         <v>26</v>
       </c>
       <c r="K20">
-        <v>244.72</v>
+        <v>610.4</v>
       </c>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>39</v>
+        <v>181</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q20">
-        <v>700107</v>
+        <v>390007</v>
       </c>
       <c r="R20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="S20" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="T20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="U20">
-        <v>700107</v>
+        <v>390007</v>
       </c>
       <c r="V20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="W20" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="X20" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="Y20" t="s">
-        <v>188</v>
+        <v>45</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:32">
+    <row r="21" spans="1:37">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C21">
-        <v>7474</v>
+        <v>7396</v>
       </c>
       <c r="D21">
-        <v>11542</v>
+        <v>7451</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G21" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I21">
-        <v>470</v>
+        <v>200</v>
       </c>
       <c r="J21" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K21">
-        <v>359.856</v>
+        <v>251.6</v>
       </c>
       <c r="L21"/>
       <c r="M21"/>
       <c r="N21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="O21" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q21">
-        <v>560027</v>
+        <v>302023</v>
       </c>
       <c r="R21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="S21" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="T21" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="U21">
-        <v>560027</v>
+        <v>302023</v>
       </c>
       <c r="V21" t="s">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="W21" t="s">
-        <v>195</v>
+        <v>44</v>
       </c>
       <c r="X21" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="Y21" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z21" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:32">
+    <row r="22" spans="1:37">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C22">
-        <v>7475</v>
+        <v>7397</v>
       </c>
       <c r="D22">
-        <v>11336</v>
+        <v>11505</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H22">
         <v>7</v>
       </c>
       <c r="I22">
-        <v>260</v>
+        <v>490</v>
       </c>
       <c r="J22" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="K22">
-        <v>458.64</v>
+        <v>352.8</v>
       </c>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="O22" t="s">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Q22">
-        <v>400072</v>
+        <v>395006</v>
       </c>
       <c r="R22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S22" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="T22" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="U22">
-        <v>400072</v>
+        <v>395006</v>
       </c>
       <c r="V22" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>48</v>
       </c>
       <c r="Z22" t="s">
-        <v>146</v>
+        <v>48</v>
       </c>
       <c r="AA22" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:32">
+    <row r="23" spans="1:37">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C23">
-        <v>7477</v>
+        <v>7399</v>
       </c>
       <c r="D23">
-        <v>11544</v>
+        <v>8996</v>
       </c>
       <c r="E23" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F23" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="G23" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="H23">
         <v>2</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" t="s">
         <v>26</v>
       </c>
       <c r="K23">
-        <v>776.16</v>
+        <v>554.4</v>
       </c>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23" t="s">
-        <v>207</v>
+        <v>100</v>
       </c>
       <c r="O23" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="P23" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="Q23">
-        <v>380022</v>
+        <v>400101</v>
       </c>
       <c r="R23" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="S23" t="s">
-        <v>209</v>
+        <v>100</v>
       </c>
       <c r="T23" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="U23">
-        <v>636007</v>
+        <v>400101</v>
       </c>
       <c r="V23" t="s">
-        <v>211</v>
+        <v>63</v>
       </c>
       <c r="W23" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="24" spans="1:32">
+    <row r="24" spans="1:37">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C24">
-        <v>7481</v>
+        <v>7400</v>
       </c>
       <c r="D24">
-        <v>11550</v>
+        <v>11507</v>
       </c>
       <c r="E24" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="G24" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="J24" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>246.56</v>
+        <v>292.32</v>
       </c>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="O24" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="P24" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="Q24">
-        <v>400026</v>
+        <v>700016</v>
       </c>
       <c r="R24" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="S24" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="T24" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="U24">
-        <v>400026</v>
+        <v>700016</v>
       </c>
       <c r="V24" t="s">
-        <v>161</v>
+        <v>209</v>
       </c>
       <c r="W24" t="s">
-        <v>161</v>
+        <v>63</v>
       </c>
       <c r="X24" t="s">
         <v>32</v>
       </c>
+      <c r="Y24" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="25" spans="1:32">
+    <row r="25" spans="1:37">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="C25">
-        <v>7482</v>
+        <v>7401</v>
       </c>
       <c r="D25">
-        <v>10473</v>
+        <v>11508</v>
       </c>
       <c r="E25" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="G25" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="H25">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>765</v>
+        <v>320</v>
       </c>
       <c r="J25" t="s">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="K25">
-        <v>576.8</v>
+        <v>327.6</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
       <c r="N25" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" t="s">
+        <v>215</v>
+      </c>
+      <c r="P25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q25">
+        <v>533103</v>
+      </c>
+      <c r="R25" t="s">
+        <v>214</v>
+      </c>
+      <c r="S25" t="s">
+        <v>214</v>
+      </c>
+      <c r="T25" t="s">
+        <v>216</v>
+      </c>
+      <c r="U25">
+        <v>533103</v>
+      </c>
+      <c r="V25" t="s">
+        <v>75</v>
+      </c>
+      <c r="W25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X25" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>219</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C26">
+        <v>7403</v>
+      </c>
+      <c r="D26">
+        <v>11509</v>
+      </c>
+      <c r="E26" t="s">
+        <v>221</v>
+      </c>
+      <c r="F26" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
         <v>223</v>
       </c>
-      <c r="O25" t="s">
+      <c r="H26">
+        <v>9</v>
+      </c>
+      <c r="I26">
+        <v>510</v>
+      </c>
+      <c r="J26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26">
+        <v>539.28</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s">
+        <v>225</v>
+      </c>
+      <c r="P26" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q26">
+        <v>493773</v>
+      </c>
+      <c r="R26" t="s">
+        <v>224</v>
+      </c>
+      <c r="S26" t="s">
+        <v>224</v>
+      </c>
+      <c r="T26" t="s">
+        <v>226</v>
+      </c>
+      <c r="U26">
+        <v>493773</v>
+      </c>
+      <c r="V26" t="s">
+        <v>41</v>
+      </c>
+      <c r="W26" t="s">
+        <v>227</v>
+      </c>
+      <c r="X26" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27">
+        <v>7404</v>
+      </c>
+      <c r="D27">
+        <v>11510</v>
+      </c>
+      <c r="E27" t="s">
+        <v>230</v>
+      </c>
+      <c r="F27" t="s">
+        <v>231</v>
+      </c>
+      <c r="G27" t="s">
+        <v>232</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>270</v>
+      </c>
+      <c r="J27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27">
+        <v>337.68</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27" t="s">
+        <v>233</v>
+      </c>
+      <c r="O27" t="s">
+        <v>124</v>
+      </c>
+      <c r="P27" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q27">
+        <v>629802</v>
+      </c>
+      <c r="R27" t="s">
+        <v>233</v>
+      </c>
+      <c r="S27" t="s">
+        <v>233</v>
+      </c>
+      <c r="T27" t="s">
+        <v>234</v>
+      </c>
+      <c r="U27">
+        <v>629802</v>
+      </c>
+      <c r="V27" t="s">
+        <v>126</v>
+      </c>
+      <c r="W27" t="s">
+        <v>44</v>
+      </c>
+      <c r="X27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28">
+        <v>7405</v>
+      </c>
+      <c r="D28">
+        <v>9662</v>
+      </c>
+      <c r="E28" t="s">
+        <v>236</v>
+      </c>
+      <c r="F28" t="s">
+        <v>237</v>
+      </c>
+      <c r="G28" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28">
+        <v>16</v>
+      </c>
+      <c r="I28">
+        <v>1240</v>
+      </c>
+      <c r="J28" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28">
+        <v>1019.2</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28" t="s">
+        <v>60</v>
+      </c>
+      <c r="O28" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q28">
+        <v>560079</v>
+      </c>
+      <c r="R28" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" t="s">
+        <v>60</v>
+      </c>
+      <c r="T28" t="s">
+        <v>239</v>
+      </c>
+      <c r="U28">
+        <v>560079</v>
+      </c>
+      <c r="V28" t="s">
+        <v>31</v>
+      </c>
+      <c r="W28" t="s">
+        <v>31</v>
+      </c>
+      <c r="X28" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>111</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>240</v>
+      </c>
+      <c r="C29">
+        <v>7407</v>
+      </c>
+      <c r="D29">
+        <v>10536</v>
+      </c>
+      <c r="E29" t="s">
+        <v>241</v>
+      </c>
+      <c r="F29" t="s">
+        <v>242</v>
+      </c>
+      <c r="G29" t="s">
+        <v>243</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>840</v>
+      </c>
+      <c r="J29" t="s">
+        <v>72</v>
+      </c>
+      <c r="K29">
+        <v>586.88</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29" t="s">
+        <v>132</v>
+      </c>
+      <c r="O29" t="s">
+        <v>39</v>
+      </c>
+      <c r="P29" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q29">
+        <v>226010</v>
+      </c>
+      <c r="R29" t="s">
+        <v>132</v>
+      </c>
+      <c r="S29" t="s">
+        <v>132</v>
+      </c>
+      <c r="T29" t="s">
+        <v>244</v>
+      </c>
+      <c r="U29">
+        <v>226010</v>
+      </c>
+      <c r="V29" t="s">
+        <v>30</v>
+      </c>
+      <c r="W29" t="s">
+        <v>217</v>
+      </c>
+      <c r="X29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>245</v>
+      </c>
+      <c r="C30">
+        <v>7409</v>
+      </c>
+      <c r="D30">
+        <v>11240</v>
+      </c>
+      <c r="E30" t="s">
+        <v>246</v>
+      </c>
+      <c r="F30" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" t="s">
+        <v>248</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>420</v>
+      </c>
+      <c r="J30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K30">
+        <v>393.12</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30" t="s">
+        <v>60</v>
+      </c>
+      <c r="O30" t="s">
+        <v>61</v>
+      </c>
+      <c r="P30" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q30">
+        <v>560054</v>
+      </c>
+      <c r="R30" t="s">
+        <v>60</v>
+      </c>
+      <c r="S30" t="s">
+        <v>60</v>
+      </c>
+      <c r="T30" t="s">
+        <v>249</v>
+      </c>
+      <c r="U30">
+        <v>560054</v>
+      </c>
+      <c r="V30" t="s">
+        <v>30</v>
+      </c>
+      <c r="W30" t="s">
+        <v>141</v>
+      </c>
+      <c r="X30" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>218</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA30" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>250</v>
+      </c>
+      <c r="C31">
+        <v>7410</v>
+      </c>
+      <c r="D31">
+        <v>11511</v>
+      </c>
+      <c r="E31" t="s">
+        <v>251</v>
+      </c>
+      <c r="F31" t="s">
+        <v>252</v>
+      </c>
+      <c r="G31" t="s">
+        <v>253</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>730</v>
+      </c>
+      <c r="J31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K31">
+        <v>624.96</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" t="s">
+        <v>61</v>
+      </c>
+      <c r="P31" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q31">
+        <v>560033</v>
+      </c>
+      <c r="R31" t="s">
+        <v>60</v>
+      </c>
+      <c r="S31" t="s">
+        <v>60</v>
+      </c>
+      <c r="T31" t="s">
+        <v>254</v>
+      </c>
+      <c r="U31">
+        <v>560033</v>
+      </c>
+      <c r="V31" t="s">
+        <v>134</v>
+      </c>
+      <c r="W31" t="s">
+        <v>209</v>
+      </c>
+      <c r="X31" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:AE8"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="V1" sqref="V1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2">
+        <v>7376</v>
+      </c>
+      <c r="D2">
+        <v>11360</v>
+      </c>
+      <c r="E2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2">
+        <v>95.56</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O2" t="s">
         <v>54</v>
       </c>
-      <c r="P25" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q25">
-        <v>245101</v>
-      </c>
-      <c r="R25" t="s">
-        <v>223</v>
-      </c>
-      <c r="S25" t="s">
-        <v>223</v>
-      </c>
-      <c r="T25" t="s">
-        <v>224</v>
-      </c>
-      <c r="U25">
-        <v>245101</v>
-      </c>
-      <c r="V25" t="s">
-        <v>105</v>
-      </c>
-      <c r="W25" t="s">
-        <v>225</v>
-      </c>
-      <c r="X25" t="s">
-        <v>225</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AD25" t="s">
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2">
+        <v>302001</v>
+      </c>
+      <c r="R2" t="s">
+        <v>53</v>
+      </c>
+      <c r="S2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T2" t="s">
+        <v>55</v>
+      </c>
+      <c r="U2">
+        <v>302001</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3">
+        <v>7390</v>
+      </c>
+      <c r="D3">
+        <v>11502</v>
+      </c>
+      <c r="E3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>175</v>
+      </c>
+      <c r="J3" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3">
+        <v>232.2</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3" t="s">
+        <v>160</v>
+      </c>
+      <c r="O3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3">
+        <v>160101</v>
+      </c>
+      <c r="R3" t="s">
+        <v>160</v>
+      </c>
+      <c r="S3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T3" t="s">
+        <v>161</v>
+      </c>
+      <c r="U3">
+        <v>160101</v>
+      </c>
+      <c r="V3" t="s">
+        <v>30</v>
+      </c>
+      <c r="W3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>259</v>
+      </c>
+      <c r="C4">
+        <v>7393</v>
+      </c>
+      <c r="D4">
+        <v>6282</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>220</v>
+      </c>
+      <c r="J4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4">
+        <v>352.8</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4" t="s">
+        <v>263</v>
+      </c>
+      <c r="O4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4">
+        <v>134003</v>
+      </c>
+      <c r="R4" t="s">
+        <v>263</v>
+      </c>
+      <c r="S4" t="s">
+        <v>263</v>
+      </c>
+      <c r="T4" t="s">
+        <v>264</v>
+      </c>
+      <c r="U4">
+        <v>134003</v>
+      </c>
+      <c r="V4" t="s">
+        <v>94</v>
+      </c>
+      <c r="W4" t="s">
+        <v>94</v>
+      </c>
+      <c r="X4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5">
+        <v>7398</v>
+      </c>
+      <c r="D5">
+        <v>11506</v>
+      </c>
+      <c r="E5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F5" t="s">
+        <v>267</v>
+      </c>
+      <c r="G5" t="s">
+        <v>268</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>500</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5">
+        <v>486.08</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="s">
+        <v>269</v>
+      </c>
+      <c r="O5" t="s">
+        <v>124</v>
+      </c>
+      <c r="P5" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q5">
+        <v>641027</v>
+      </c>
+      <c r="R5" t="s">
+        <v>269</v>
+      </c>
+      <c r="S5" t="s">
+        <v>269</v>
+      </c>
+      <c r="T5" t="s">
+        <v>270</v>
+      </c>
+      <c r="U5">
+        <v>641027</v>
+      </c>
+      <c r="V5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W5" t="s">
+        <v>271</v>
+      </c>
+      <c r="X5" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB5" t="s">
         <v>46</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6">
+        <v>7402</v>
+      </c>
+      <c r="D6">
+        <v>6354</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G6" t="s">
+        <v>277</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>660</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6">
+        <v>332.64</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6" t="s">
+        <v>206</v>
+      </c>
+      <c r="O6" t="s">
+        <v>207</v>
+      </c>
+      <c r="P6" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q6">
+        <v>700017</v>
+      </c>
+      <c r="R6" t="s">
+        <v>206</v>
+      </c>
+      <c r="S6" t="s">
+        <v>206</v>
+      </c>
+      <c r="T6" t="s">
+        <v>278</v>
+      </c>
+      <c r="U6">
+        <v>700017</v>
+      </c>
+      <c r="V6" t="s">
+        <v>279</v>
+      </c>
+      <c r="W6" t="s">
+        <v>279</v>
+      </c>
+      <c r="X6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C7">
+        <v>7406</v>
+      </c>
+      <c r="D7">
+        <v>10536</v>
+      </c>
+      <c r="E7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>840</v>
+      </c>
+      <c r="J7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <v>632.8</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="s">
+        <v>132</v>
+      </c>
+      <c r="O7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P7" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q7">
+        <v>226010</v>
+      </c>
+      <c r="R7" t="s">
+        <v>132</v>
+      </c>
+      <c r="S7" t="s">
+        <v>132</v>
+      </c>
+      <c r="T7" t="s">
+        <v>244</v>
+      </c>
+      <c r="U7">
+        <v>226010</v>
+      </c>
+      <c r="V7" t="s">
+        <v>30</v>
+      </c>
+      <c r="W7" t="s">
+        <v>217</v>
+      </c>
+      <c r="X7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C8">
+        <v>7408</v>
+      </c>
+      <c r="D8">
+        <v>11511</v>
+      </c>
+      <c r="E8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G8" t="s">
+        <v>253</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>730</v>
+      </c>
+      <c r="J8" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8">
+        <v>624.96</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P8" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q8">
+        <v>560033</v>
+      </c>
+      <c r="R8" t="s">
+        <v>60</v>
+      </c>
+      <c r="S8" t="s">
+        <v>60</v>
+      </c>
+      <c r="T8" t="s">
+        <v>254</v>
+      </c>
+      <c r="U8">
+        <v>560033</v>
+      </c>
+      <c r="V8" t="s">
+        <v>134</v>
+      </c>
+      <c r="W8" t="s">
+        <v>209</v>
+      </c>
+      <c r="X8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>255</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>256</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
